--- a/predictive/classification/decision_tree/formulas.xlsx
+++ b/predictive/classification/decision_tree/formulas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="107">
   <si>
     <t xml:space="preserve">Exemplos de Cálculo de  Entropia e Ganho de informação</t>
   </si>
@@ -157,10 +157,10 @@
     <t xml:space="preserve">Dívida</t>
   </si>
   <si>
-    <t xml:space="preserve">Alta 6/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alto 3/6</t>
+    <t xml:space="preserve">Alta 7/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alto 4/7</t>
   </si>
   <si>
     <t xml:space="preserve">Entropia do Dívida -&gt; Risco -&gt; Alta </t>
@@ -169,43 +169,40 @@
     <t xml:space="preserve">Alta</t>
   </si>
   <si>
-    <t xml:space="preserve">Moderado 1/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'3/6’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'1/6’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'2/6’</t>
+    <t xml:space="preserve">Moderado 1/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'4/7’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'1/7’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'2/7’</t>
   </si>
   <si>
     <t xml:space="preserve">Baixa</t>
   </si>
   <si>
-    <t xml:space="preserve">Baixo 2/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baixa 8/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alto 3/8</t>
+    <t xml:space="preserve">Baixo 2/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baixa 7/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alto 3/7</t>
   </si>
   <si>
     <t xml:space="preserve">Entropia do Dívida -&gt; Risco -&gt; Baixa</t>
   </si>
   <si>
-    <t xml:space="preserve">Moderado 2/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'3/8’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'2/8’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baixo 3/8</t>
+    <t xml:space="preserve">Moderado 2/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'3/7’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baixo 3/7</t>
   </si>
   <si>
     <t xml:space="preserve">Dívida é atributo previsor</t>
@@ -214,7 +211,7 @@
     <t xml:space="preserve">Ganho (Dívida → Alta | Baixa) </t>
   </si>
   <si>
-    <t xml:space="preserve">O ganho de informação para o atributo Dívida é 0,01</t>
+    <t xml:space="preserve">O ganho de informação para o atributo Dívida é 0,05</t>
   </si>
   <si>
     <t xml:space="preserve">Garantias</t>
@@ -289,6 +286,9 @@
     <t xml:space="preserve">Alto 3/3</t>
   </si>
   <si>
+    <t xml:space="preserve">Entropia da Renda Anual -&gt; Risco -&gt; &lt; 15.000 | Alto | Moderado | Baixo</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt; 15.000</t>
   </si>
   <si>
@@ -298,28 +298,49 @@
     <t xml:space="preserve">&gt;= 15.000 a &lt;= 35.000</t>
   </si>
   <si>
+    <t xml:space="preserve">'3/3’</t>
+  </si>
+  <si>
     <t xml:space="preserve">&gt; 35.000</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;= 15.000 a &lt;= 35.000 3/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alto 1/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderado 2/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; 35.000 8/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alto 2/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderado 1/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baixo 5/8</t>
+    <t xml:space="preserve">&gt;= 15.000 a &lt;= 35.000 4/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alto 2/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entropia da Renda Anual -&gt; Risco -&gt; &gt;= 15.000 a &lt;= 35.000 | Alto | Moderado | Baixo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderado 2/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'2/4’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 35.000 7/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alto 1/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/7’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'5/7’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baixo 5/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda anual é atributo previsor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganho (Renda Anual → &lt;15.000 | &gt;=15.000 a &lt;= 35.000 | &gt; 35.000) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O ganho de informação para o atributo Renda Anual é 0,39</t>
   </si>
 </sst>
 </file>
@@ -336,6 +357,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -357,18 +379,21 @@
       <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -376,12 +401,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="21">
@@ -540,28 +567,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,7 +608,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,11 +636,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -633,7 +664,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -645,11 +676,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -657,35 +692,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -705,19 +724,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -737,15 +752,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -765,15 +780,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -856,11 +871,11 @@
   </sheetPr>
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F131" activeCellId="0" sqref="F131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J146" activeCellId="0" sqref="J146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -937,13 +952,13 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -951,33 +966,33 @@
       <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="19" t="n">
+      <c r="F6" s="20" t="n">
         <f aca="false">1/5</f>
         <v>0.2</v>
       </c>
-      <c r="G6" s="19" t="n">
+      <c r="G6" s="20" t="n">
         <f aca="false">1/5</f>
         <v>0.2</v>
       </c>
-      <c r="H6" s="19" t="n">
+      <c r="H6" s="20" t="n">
         <f aca="false">3/5</f>
         <v>0.6</v>
       </c>
-      <c r="I6" s="20" t="n">
+      <c r="I6" s="21" t="n">
         <f aca="false">-F6*LOG(F6,2)-G6*LOG(G6,2)-H6*LOG(H6,2)</f>
         <v>1.37095059445467</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -991,11 +1006,11 @@
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1012,7 +1027,7 @@
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2"/>
@@ -1020,7 +1035,7 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -1045,77 +1060,77 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="19" t="n">
+      <c r="F12" s="20" t="n">
         <f aca="false">2/5</f>
         <v>0.4</v>
       </c>
-      <c r="G12" s="19" t="n">
+      <c r="G12" s="20" t="n">
         <f aca="false">1/5</f>
         <v>0.2</v>
       </c>
-      <c r="H12" s="19" t="n">
+      <c r="H12" s="20" t="n">
         <f aca="false">2/5</f>
         <v>0.4</v>
       </c>
-      <c r="I12" s="20" t="n">
+      <c r="I12" s="21" t="n">
         <f aca="false">-F12*LOG(F12,2)-G12*LOG(G12,2)-H12*LOG(H12,2)</f>
         <v>1.52192809488736</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1129,10 +1144,10 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
@@ -1140,10 +1155,10 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
@@ -1165,7 +1180,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -1174,41 +1189,41 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="19" t="n">
+      <c r="F18" s="20" t="n">
         <f aca="false">3/4</f>
         <v>0.75</v>
       </c>
-      <c r="G18" s="19" t="n">
+      <c r="G18" s="20" t="n">
         <f aca="false">1/4</f>
         <v>0.25</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20" t="n">
+      <c r="H18" s="20"/>
+      <c r="I18" s="21" t="n">
         <f aca="false">-F18*LOG(F18,2)-G18*LOG(G18,2)</f>
         <v>0.811278124459133</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="2"/>
@@ -1216,7 +1231,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1224,36 +1239,36 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="27"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="11" t="s">
         <v>8</v>
       </c>
@@ -1268,114 +1283,114 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="19" t="n">
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="20" t="n">
         <f aca="false">6/14</f>
         <v>0.428571428571429</v>
       </c>
-      <c r="F27" s="19" t="n">
+      <c r="F27" s="20" t="n">
         <f aca="false">3/14</f>
         <v>0.214285714285714</v>
       </c>
-      <c r="G27" s="19" t="n">
+      <c r="G27" s="20" t="n">
         <f aca="false">5/14</f>
         <v>0.357142857142857</v>
       </c>
-      <c r="H27" s="20" t="n">
+      <c r="H27" s="21" t="n">
         <f aca="false">-E27*LOG(E27,2)-F27*LOG(F27,2)-G27*LOG(G27,2)</f>
         <v>1.53061899484852</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="30"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="29"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="27"/>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="20" t="n">
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="21" t="n">
         <f aca="false">H27-(5/14*I6)-(5/14*I12)-(4/14*I18)</f>
         <v>0.265654284523754</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29" t="s">
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="29"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="34" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -1389,25 +1404,25 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="35" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="4"/>
       <c r="F42" s="11" t="s">
         <v>8</v>
@@ -1423,111 +1438,111 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="19" t="n">
-        <f aca="false">3/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="19" t="n">
-        <f aca="false">1/6</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="H44" s="19" t="n">
-        <f aca="false">2/6</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I44" s="20" t="n">
+      <c r="F44" s="20" t="n">
+        <f aca="false">4/7</f>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="G44" s="20" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="H44" s="20" t="n">
+        <f aca="false">2/7</f>
+        <v>0.285714285714286</v>
+      </c>
+      <c r="I44" s="21" t="n">
         <f aca="false">-F44*LOG(F44,2)-G44*LOG(G44,2)-H44*LOG(H44,2)</f>
-        <v>1.45914791702724</v>
+        <v>1.37878349348618</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="38" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36" t="s">
+      <c r="B46" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="18"/>
+      <c r="B47" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="38" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="18"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="41" t="s">
+      <c r="C49" s="33"/>
+      <c r="D49" s="39" t="s">
         <v>55</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -1541,25 +1556,25 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="41"/>
+      <c r="B50" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="41"/>
+      <c r="B51" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="4"/>
       <c r="F51" s="11" t="s">
         <v>8</v>
@@ -1573,113 +1588,113 @@
       <c r="I51" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="0" t="s">
+      <c r="J51" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="41"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="20" t="n">
+        <f aca="false">3/7</f>
+        <v>0.428571428571429</v>
+      </c>
+      <c r="G53" s="20" t="n">
+        <f aca="false">2/7</f>
+        <v>0.285714285714286</v>
+      </c>
+      <c r="H53" s="20" t="n">
+        <f aca="false">3/7</f>
+        <v>0.428571428571429</v>
+      </c>
+      <c r="I53" s="21" t="n">
+        <f aca="false">-F53*LOG(F53,2)-G53*LOG(G53,2)-H53*LOG(H53,2)</f>
+        <v>1.56415205316199</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="33"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="19" t="n">
-        <f aca="false">3/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="G53" s="19" t="n">
-        <f aca="false">2/8</f>
-        <v>0.25</v>
-      </c>
-      <c r="H53" s="19" t="n">
-        <f aca="false">3/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="I53" s="20" t="n">
-        <f aca="false">-F53*LOG(F53,2)-G53*LOG(G53,2)-H53*LOG(H53,2)</f>
-        <v>1.56127812445913</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="31"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="35"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="42"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="18"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -1687,36 +1702,36 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="27"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="27"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="28" t="s">
+      <c r="A61" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="11" t="s">
         <v>8</v>
       </c>
@@ -1731,146 +1746,146 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="27"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="19" t="n">
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="20" t="n">
         <f aca="false">6/14</f>
         <v>0.428571428571429</v>
       </c>
-      <c r="F65" s="19" t="n">
+      <c r="F65" s="20" t="n">
         <f aca="false">3/14</f>
         <v>0.214285714285714</v>
       </c>
-      <c r="G65" s="19" t="n">
+      <c r="G65" s="20" t="n">
         <f aca="false">5/14</f>
         <v>0.357142857142857</v>
       </c>
-      <c r="H65" s="20" t="n">
+      <c r="H65" s="21" t="n">
         <f aca="false">-E65*LOG(E65,2)-F65*LOG(F65,2)-G65*LOG(G65,2)</f>
         <v>1.53061899484852</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="30"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="29"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="31"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="27"/>
-      <c r="D70" s="18" t="s">
+      <c r="C70" s="28"/>
+      <c r="D70" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="33" t="s">
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="21" t="n">
+        <f aca="false">H65-(6/14*I44)-(8/14*I53)</f>
+        <v>0.0459106101190246</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="20" t="n">
-        <f aca="false">H65-(6/14*I44)-(8/14*I53)</f>
-        <v>0.0131109592887653</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29" t="s">
+      <c r="H71" s="17"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H71" s="29"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="43" t="s">
+      <c r="D78" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="E78" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="45" t="s">
-        <v>65</v>
+      <c r="A79" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="43"/>
-      <c r="D79" s="44"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="41"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="46" t="s">
-        <v>69</v>
+      <c r="A80" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="43"/>
-      <c r="D80" s="44"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="41"/>
       <c r="E80" s="4"/>
       <c r="F80" s="11" t="s">
         <v>8</v>
@@ -1886,143 +1901,143 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="46" t="s">
+      <c r="A81" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B81" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="43"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="10" t="s">
+      <c r="F81" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="G81" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="H81" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H81" s="0" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="17" t="s">
+      <c r="A82" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="43"/>
-      <c r="D82" s="44"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="41"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="19" t="n">
+      <c r="F82" s="20" t="n">
         <f aca="false">6/11</f>
         <v>0.545454545454545</v>
       </c>
-      <c r="G82" s="19" t="n">
+      <c r="G82" s="20" t="n">
         <f aca="false">2/11</f>
         <v>0.181818181818182</v>
       </c>
-      <c r="H82" s="19" t="n">
+      <c r="H82" s="20" t="n">
         <f aca="false">3/11</f>
         <v>0.272727272727273</v>
       </c>
-      <c r="I82" s="20" t="n">
+      <c r="I82" s="21" t="n">
         <f aca="false">-F82*LOG(F82,2)-G82*LOG(G82,2)-H82*LOG(H82,2)</f>
         <v>1.43537139077453</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="46" t="s">
-        <v>69</v>
+      <c r="A83" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="44"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="41"/>
       <c r="E83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="44" t="s">
+      <c r="A84" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="40"/>
+      <c r="D84" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="44" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="47" t="s">
+      <c r="B85" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="40"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="19"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="40"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="19"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="40"/>
+      <c r="D87" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B85" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="18"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="43"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="18"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="43"/>
-      <c r="D87" s="49" t="s">
+      <c r="E87" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="F87" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="43"/>
-      <c r="D88" s="49"/>
+      <c r="A88" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="40"/>
+      <c r="D88" s="46"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="43"/>
-      <c r="D89" s="49"/>
+      <c r="A89" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="40"/>
+      <c r="D89" s="46"/>
       <c r="E89" s="4"/>
       <c r="F89" s="11" t="s">
         <v>8</v>
@@ -2036,112 +2051,112 @@
       <c r="I89" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J89" s="0" t="s">
+      <c r="J89" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="48" t="s">
-        <v>69</v>
+      <c r="A90" s="45" t="s">
+        <v>68</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="43"/>
-      <c r="D90" s="49"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="46"/>
       <c r="E90" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F90" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" s="0" t="s">
+      <c r="H90" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H90" s="0" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B91" s="17" t="s">
+      <c r="A91" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="43"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="19" t="n">
+      <c r="C91" s="40"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="G91" s="19" t="n">
+      <c r="G91" s="20" t="n">
         <f aca="false">1/3</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="H91" s="19" t="n">
+      <c r="H91" s="20" t="n">
         <f aca="false">2/3</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="I91" s="20" t="n">
+      <c r="I91" s="21" t="n">
         <f aca="false">-G91*LOG(G91,2)-H91*LOG(H91,2)</f>
         <v>0.91829583405449</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="43"/>
-      <c r="D92" s="49"/>
+      <c r="A92" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="40"/>
+      <c r="D92" s="46"/>
       <c r="E92" s="10"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="48" t="s">
-        <v>69</v>
+      <c r="A93" s="45" t="s">
+        <v>68</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="43"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="43"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="42"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="21"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C95" s="43"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="18"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="19"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="4" t="s">
@@ -2149,36 +2164,36 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C97" s="27"/>
+      <c r="C97" s="28"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="27"/>
+      <c r="C98" s="28"/>
       <c r="D98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="28" t="s">
+      <c r="A99" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
       <c r="E101" s="11" t="s">
         <v>8</v>
       </c>
@@ -2193,146 +2208,146 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="27"/>
+      <c r="C102" s="28"/>
       <c r="D102" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G102" s="0" t="s">
+      <c r="G102" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="19" t="n">
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="20" t="n">
         <f aca="false">6/14</f>
         <v>0.428571428571429</v>
       </c>
-      <c r="F103" s="19" t="n">
+      <c r="F103" s="20" t="n">
         <f aca="false">3/14</f>
         <v>0.214285714285714</v>
       </c>
-      <c r="G103" s="19" t="n">
+      <c r="G103" s="20" t="n">
         <f aca="false">5/14</f>
         <v>0.357142857142857</v>
       </c>
-      <c r="H103" s="20" t="n">
+      <c r="H103" s="21" t="n">
         <f aca="false">-E103*LOG(E103,2)-F103*LOG(F103,2)-G103*LOG(G103,2)</f>
         <v>1.53061899484852</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="30"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="29"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="31"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="14"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="27"/>
-      <c r="D108" s="18" t="s">
+      <c r="C108" s="28"/>
+      <c r="D108" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="33" t="s">
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="21" t="n">
+        <f aca="false">H103-(11/14*I82)-(3/14*I91)</f>
+        <v>0.206049509085427</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="20" t="n">
-        <f aca="false">H103-(6/14*I82)-(8/14*I91)</f>
-        <v>0.390719350771152</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29" t="s">
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H109" s="29"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="50" t="s">
+      <c r="D116" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D116" s="51" t="s">
+      <c r="E116" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="F116" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="52" t="s">
-        <v>86</v>
+      <c r="A117" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="50"/>
-      <c r="D117" s="51"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="48"/>
       <c r="E117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="53" t="s">
+      <c r="A118" s="50" t="s">
         <v>89</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="50"/>
-      <c r="D118" s="51"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="48"/>
       <c r="E118" s="10" t="s">
         <v>90</v>
       </c>
@@ -2350,266 +2365,295 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="54" t="s">
+      <c r="A119" s="51" t="s">
         <v>91</v>
       </c>
       <c r="B119" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="50"/>
-      <c r="D119" s="51"/>
+      <c r="C119" s="47"/>
+      <c r="D119" s="48"/>
       <c r="E119" s="10"/>
-      <c r="F119" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H119" s="0" t="s">
-        <v>73</v>
+      <c r="F119" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="54" t="s">
+      <c r="A120" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="50"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="18" t="s">
+      <c r="C120" s="47"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F120" s="19" t="n">
-        <f aca="false">6/11</f>
-        <v>0.545454545454545</v>
-      </c>
-      <c r="G120" s="19" t="n">
-        <f aca="false">2/11</f>
-        <v>0.181818181818182</v>
-      </c>
-      <c r="H120" s="19" t="n">
-        <f aca="false">3/11</f>
-        <v>0.272727272727273</v>
-      </c>
-      <c r="I120" s="20" t="n">
-        <f aca="false">-F120*LOG(F120,2)-G120*LOG(G120,2)-H120*LOG(H120,2)</f>
-        <v>1.43537139077453</v>
+      <c r="F120" s="20" t="n">
+        <f aca="false">3/3</f>
+        <v>1</v>
+      </c>
+      <c r="G120" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="21" t="n">
+        <f aca="false">-F120*LOG(F120,2)</f>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="55" t="s">
-        <v>92</v>
+      <c r="A121" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="B121" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C121" s="50"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="18"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="19"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B122" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="50"/>
-      <c r="D122" s="56" t="s">
+      <c r="A122" s="52" t="s">
         <v>93</v>
       </c>
+      <c r="B122" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="47"/>
+      <c r="D122" s="53" t="s">
+        <v>94</v>
+      </c>
       <c r="E122" s="4" t="s">
-        <v>94</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B123" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="50"/>
-      <c r="D123" s="56"/>
+      <c r="A123" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="47"/>
+      <c r="D123" s="53"/>
       <c r="E123" s="4"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="53" t="s">
+      <c r="A124" s="50" t="s">
         <v>89</v>
       </c>
       <c r="B124" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="50"/>
-      <c r="D124" s="56"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="53"/>
       <c r="E124" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B125" s="17" t="s">
+      <c r="A125" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B125" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="50"/>
-      <c r="D125" s="56"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="53"/>
       <c r="E125" s="10"/>
-      <c r="F125" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="50"/>
-      <c r="D126" s="56"/>
-      <c r="E126" s="18" t="s">
+      <c r="F125" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="47"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="19" t="s">
         <v>31</v>
       </c>
+      <c r="F126" s="20" t="n">
+        <f aca="false">2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="G126" s="20" t="n">
+        <f aca="false">2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="H126" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" s="21" t="n">
+        <f aca="false">-F126*LOG(F126,2)-G126*LOG(G126,2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B127" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="50"/>
-      <c r="D127" s="56"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G127" s="12" t="s">
+      <c r="A127" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="47"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="19"/>
+      <c r="J127" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="47"/>
+      <c r="D128" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H127" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I127" s="14" t="s">
+      <c r="C129" s="47"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="54"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="47"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J127" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="50"/>
-      <c r="D128" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F128" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H128" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="54" t="s">
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B129" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" s="50"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="57"/>
-      <c r="F129" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" s="19" t="n">
-        <f aca="false">1/3</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H129" s="19" t="n">
-        <f aca="false">2/3</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I129" s="20" t="n">
-        <f aca="false">-G129*LOG(G129,2)-H129*LOG(H129,2)</f>
-        <v>0.91829583405449</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B130" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="50"/>
-      <c r="D130" s="57"/>
-      <c r="E130" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="F130" s="30"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="30"/>
-      <c r="I130" s="31"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="55" t="s">
-        <v>92</v>
-      </c>
       <c r="B131" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="50"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="58"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="29"/>
-      <c r="I131" s="29"/>
+      <c r="C131" s="47"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="50"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="42"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F132" s="20" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="G132" s="20" t="n">
+        <f aca="false">1/7</f>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="H132" s="20" t="n">
+        <f aca="false">5/7</f>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="I132" s="21" t="n">
+        <f aca="false">-F132*LOG(F132,2)-G132*LOG(G132,2)-H132*LOG(H132,2)</f>
+        <v>1.14883485428092</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C133" s="50"/>
-      <c r="D133" s="57"/>
-      <c r="E133" s="18"/>
+      <c r="C133" s="47"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="19"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="4" t="s">
@@ -2617,36 +2661,36 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C135" s="27"/>
+      <c r="C135" s="28"/>
       <c r="D135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="27"/>
+      <c r="C136" s="28"/>
       <c r="D136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="28" t="s">
+      <c r="A137" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C137" s="28"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="28"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="28"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="27"/>
-      <c r="D139" s="27"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
       <c r="E139" s="11" t="s">
         <v>8</v>
       </c>
@@ -2661,111 +2705,111 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="27"/>
+      <c r="C140" s="28"/>
       <c r="D140" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="E140" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F140" s="0" t="s">
+      <c r="F140" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G140" s="0" t="s">
+      <c r="G140" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="27"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="19" t="n">
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="20" t="n">
         <f aca="false">6/14</f>
         <v>0.428571428571429</v>
       </c>
-      <c r="F141" s="19" t="n">
+      <c r="F141" s="20" t="n">
         <f aca="false">3/14</f>
         <v>0.214285714285714</v>
       </c>
-      <c r="G141" s="19" t="n">
+      <c r="G141" s="20" t="n">
         <f aca="false">5/14</f>
         <v>0.357142857142857</v>
       </c>
-      <c r="H141" s="20" t="n">
+      <c r="H141" s="21" t="n">
         <f aca="false">-E141*LOG(E141,2)-F141*LOG(F141,2)-G141*LOG(G141,2)</f>
         <v>1.53061899484852</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="28"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="30"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="29"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="31"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="14"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="29"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="27"/>
-      <c r="D146" s="18" t="s">
+      <c r="C146" s="28"/>
+      <c r="D146" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="H146" s="33"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="20" t="n">
-        <f aca="false">H141-(6/14*I120)-(8/14*I129)</f>
-        <v>0.390719350771152</v>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
+      <c r="J146" s="21" t="n">
+        <f aca="false">H141-(3/14*I120)-(4/14*I129)-(7/14*I132)</f>
+        <v>0.956201567708062</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="27"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="H147" s="29"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H147" s="17"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="27"/>
-      <c r="D148" s="27"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="27"/>
-      <c r="D149" s="27"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="28"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="27"/>
-      <c r="D150" s="27"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="27"/>
-      <c r="D151" s="27"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="79">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C2:C19"/>
     <mergeCell ref="D2:D7"/>
@@ -2831,11 +2875,12 @@
     <mergeCell ref="E120:E121"/>
     <mergeCell ref="D122:D127"/>
     <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:I122"/>
     <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F125:I125"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="D128:D133"/>
     <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:I128"/>
     <mergeCell ref="E130:E131"/>
     <mergeCell ref="E132:E133"/>
     <mergeCell ref="C134:C151"/>
